--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.2712634615478</v>
+        <v>16.88469033333334</v>
       </c>
       <c r="H2">
-        <v>12.2712634615478</v>
+        <v>50.654071</v>
       </c>
       <c r="I2">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="J2">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0492093676420873</v>
+        <v>13.92410533333333</v>
       </c>
       <c r="N2">
-        <v>0.0492093676420873</v>
+        <v>41.772316</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9926481335887254</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9926481335887255</v>
       </c>
       <c r="Q2">
-        <v>0.6038611151122185</v>
+        <v>235.1042067220484</v>
       </c>
       <c r="R2">
-        <v>0.6038611151122185</v>
+        <v>2115.937860498436</v>
       </c>
       <c r="S2">
-        <v>0.06260338744669074</v>
+        <v>0.06221130857349283</v>
       </c>
       <c r="T2">
-        <v>0.06260338744669074</v>
+        <v>0.06221130857349284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.1259337772057</v>
+        <v>16.88469033333334</v>
       </c>
       <c r="H3">
-        <v>73.1259337772057</v>
+        <v>50.654071</v>
       </c>
       <c r="I3">
-        <v>0.3730611097219514</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="J3">
-        <v>0.3730611097219514</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0492093676420873</v>
+        <v>0.05023433333333333</v>
       </c>
       <c r="N3">
-        <v>0.0492093676420873</v>
+        <v>0.150703</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.003581200804767964</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003581200804767964</v>
       </c>
       <c r="Q3">
-        <v>3.598480959413445</v>
+        <v>0.8481911624347779</v>
       </c>
       <c r="R3">
-        <v>3.598480959413445</v>
+        <v>7.633720461913001</v>
       </c>
       <c r="S3">
-        <v>0.3730611097219514</v>
+        <v>0.0002244412504193229</v>
       </c>
       <c r="T3">
-        <v>0.3730611097219514</v>
+        <v>0.0002244412504193229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,424 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.618768702343</v>
+        <v>16.88469033333334</v>
       </c>
       <c r="H4">
-        <v>110.618768702343</v>
+        <v>50.654071</v>
       </c>
       <c r="I4">
-        <v>0.5643355028313578</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="J4">
-        <v>0.5643355028313578</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0492093676420873</v>
+        <v>0.052892</v>
       </c>
       <c r="N4">
-        <v>0.0492093676420873</v>
+        <v>0.158676</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.003770665606506583</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.003770665606506583</v>
       </c>
       <c r="Q4">
-        <v>5.443479657188617</v>
+        <v>0.8930650411106668</v>
       </c>
       <c r="R4">
-        <v>5.443479657188617</v>
+        <v>8.037585369996</v>
       </c>
       <c r="S4">
-        <v>0.5643355028313578</v>
+        <v>0.0002363154008316788</v>
       </c>
       <c r="T4">
-        <v>0.5643355028313578</v>
+        <v>0.0002363154008316788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>74.31489566666666</v>
+      </c>
+      <c r="H5">
+        <v>222.944687</v>
+      </c>
+      <c r="I5">
+        <v>0.2758397042791308</v>
+      </c>
+      <c r="J5">
+        <v>0.2758397042791308</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>13.92410533333333</v>
+      </c>
+      <c r="N5">
+        <v>41.772316</v>
+      </c>
+      <c r="O5">
+        <v>0.9926481335887254</v>
+      </c>
+      <c r="P5">
+        <v>0.9926481335887255</v>
+      </c>
+      <c r="Q5">
+        <v>1034.768435098343</v>
+      </c>
+      <c r="R5">
+        <v>9312.915915885091</v>
+      </c>
+      <c r="S5">
+        <v>0.2738117676223452</v>
+      </c>
+      <c r="T5">
+        <v>0.2738117676223452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>74.31489566666666</v>
+      </c>
+      <c r="H6">
+        <v>222.944687</v>
+      </c>
+      <c r="I6">
+        <v>0.2758397042791308</v>
+      </c>
+      <c r="J6">
+        <v>0.2758397042791308</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05023433333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.150703</v>
+      </c>
+      <c r="O6">
+        <v>0.003581200804767964</v>
+      </c>
+      <c r="P6">
+        <v>0.003581200804767964</v>
+      </c>
+      <c r="Q6">
+        <v>3.733159240551222</v>
+      </c>
+      <c r="R6">
+        <v>33.598433164961</v>
+      </c>
+      <c r="S6">
+        <v>0.0009878373709513806</v>
+      </c>
+      <c r="T6">
+        <v>0.0009878373709513806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>74.31489566666666</v>
+      </c>
+      <c r="H7">
+        <v>222.944687</v>
+      </c>
+      <c r="I7">
+        <v>0.2758397042791308</v>
+      </c>
+      <c r="J7">
+        <v>0.2758397042791308</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.052892</v>
+      </c>
+      <c r="N7">
+        <v>0.158676</v>
+      </c>
+      <c r="O7">
+        <v>0.003770665606506583</v>
+      </c>
+      <c r="P7">
+        <v>0.003770665606506583</v>
+      </c>
+      <c r="Q7">
+        <v>3.930663461601333</v>
+      </c>
+      <c r="R7">
+        <v>35.375971154412</v>
+      </c>
+      <c r="S7">
+        <v>0.001040099285834265</v>
+      </c>
+      <c r="T7">
+        <v>0.001040099285834265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>178.2137526666667</v>
+      </c>
+      <c r="H8">
+        <v>534.641258</v>
+      </c>
+      <c r="I8">
+        <v>0.6614882304961253</v>
+      </c>
+      <c r="J8">
+        <v>0.6614882304961253</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>13.92410533333333</v>
+      </c>
+      <c r="N8">
+        <v>41.772316</v>
+      </c>
+      <c r="O8">
+        <v>0.9926481335887254</v>
+      </c>
+      <c r="P8">
+        <v>0.9926481335887255</v>
+      </c>
+      <c r="Q8">
+        <v>2481.467063979281</v>
+      </c>
+      <c r="R8">
+        <v>22333.20357581352</v>
+      </c>
+      <c r="S8">
+        <v>0.6566250573928873</v>
+      </c>
+      <c r="T8">
+        <v>0.6566250573928873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>178.2137526666667</v>
+      </c>
+      <c r="H9">
+        <v>534.641258</v>
+      </c>
+      <c r="I9">
+        <v>0.6614882304961253</v>
+      </c>
+      <c r="J9">
+        <v>0.6614882304961253</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05023433333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.150703</v>
+      </c>
+      <c r="O9">
+        <v>0.003581200804767964</v>
+      </c>
+      <c r="P9">
+        <v>0.003581200804767964</v>
+      </c>
+      <c r="Q9">
+        <v>8.952449056041555</v>
+      </c>
+      <c r="R9">
+        <v>80.572041504374</v>
+      </c>
+      <c r="S9">
+        <v>0.00236892218339726</v>
+      </c>
+      <c r="T9">
+        <v>0.00236892218339726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>178.2137526666667</v>
+      </c>
+      <c r="H10">
+        <v>534.641258</v>
+      </c>
+      <c r="I10">
+        <v>0.6614882304961253</v>
+      </c>
+      <c r="J10">
+        <v>0.6614882304961253</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.052892</v>
+      </c>
+      <c r="N10">
+        <v>0.158676</v>
+      </c>
+      <c r="O10">
+        <v>0.003770665606506583</v>
+      </c>
+      <c r="P10">
+        <v>0.003770665606506583</v>
+      </c>
+      <c r="Q10">
+        <v>9.426081806045334</v>
+      </c>
+      <c r="R10">
+        <v>84.834736254408</v>
+      </c>
+      <c r="S10">
+        <v>0.002494250919840638</v>
+      </c>
+      <c r="T10">
+        <v>0.002494250919840638</v>
       </c>
     </row>
   </sheetData>
